--- a/docs/5u23/doc/_downloads/nablarch5u23-releasenote.xlsx
+++ b/docs/5u23/doc/_downloads/nablarch5u23-releasenote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1389" documentId="14_{92B68567-62ED-48C3-80C6-5FE724631467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49308430-7120-4853-A535-02191E7F464A}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{4887760B-915A-430F-97AF-1EB38BFE5B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1001654-5C7A-4BB9-B72D-A733A02E1A6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="5u23" sheetId="2" r:id="rId2"/>
     <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
     <sheet name="DBアクセス失敗時の例外ハンドリング" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u23'!$A$5:$N$5</definedName>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
   <si>
     <t>開発ガイド</t>
   </si>
@@ -1353,492 +1352,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">        try {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (RuntimeException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (Error e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>public T doTransaction() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    transactionManager.beginTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Throwable throwable = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    try {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        T result = execute(DbConnectionContext.getConnection(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                transactionManager.getDbTransactionName()));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 正常終了時はコミット処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        transactionManager.commitTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return result;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } catch (RuntimeException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.rollbackTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (RuntimeException exception) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            writeWarnLog(e);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throwable = exception;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw exception;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (Error error) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throwable = error;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw error;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        throwable = e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        throw e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } catch (Error e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } finally {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.endTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            writeWarnLog(throwable);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>（変更前）</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（変更後）</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>コミット処理</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ロールバック処理</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>送出なし</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nablarch.common.handler.DbConnectionManagementHandler (nablarch-common-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nablarch.core.db.transaction.SimpleDbTransactionExecutor (nablarch-core-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>public Object handle(Object inputData, ExecutionContext ctx) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    before();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return ctx.handleNext(inputData);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            after();</t>
-  </si>
-  <si>
-    <t>●DBコネクションの終了処理</t>
-    <rPh sb="10" eb="14">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>●データベース接続管理ハンドラ</t>
-    <rPh sb="7" eb="11">
-      <t>セツゾクカンリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>●個別トランザクションを使用したDBアクセス</t>
-    <rPh sb="1" eb="3">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>public void terminate() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (isClose) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        rollback();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        closeStatements();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        statements = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cacheStatements = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        isClose = true;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            closeConnection();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (SQLException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            LOGGER.logWarn("failed to terminate.", e);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw new DbAccessException("failed to terminate.", e);</t>
-  </si>
-  <si>
-    <t>nablarch.core.db.connection.BasicDbConnection (nablarch-core-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対象のクラスと、処理の変更点を以下に示します。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句のafter()では、BasicDbConnectionの「DBコネクションの終了処理」が実行されます。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.endTransaction();</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句のtransactionManager.endTransaction()では、BasicDbConnectionの「DBコネクションの終了処理」が実行されます。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="75" eb="79">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ不可な例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ可能な例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションクローズに失敗した場合は単に警告ログが出力されます。try句で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句でDBコネクションクローズに失敗した場合、変更前はtry句で例外が発生しているかどうかに関わらずDbAccessException（リトライ不可な例外)が送出されていました。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理が失敗した場合、変更前はDBコネクションの終了処理で発生した例外を送出していました。</t>
-    <rPh sb="14" eb="16">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理が失敗した場合、変更前はDBコネクションの終了処理で発生した例外を送出していました。</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションの終了処理で発生した例外は警告ログとして出力されます。try句(コミット処理)またはcatch句(ロールバック処理)で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対象のクラスと、処理の変更点を以下に示します。</t>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベースアクセスのエラーハンドリングについて、以下2点の修正を実施しました。
-1. これまで、コネクション取得・コミットで処理に失敗した場合、必ずリトライできない例外が送出されていました。今回の修正で、コネクション取得・コミットで処理に失敗した場合、可能な場合はリトライ可能な例外が送出されるようになります。
-2. これまで、トランザクションに失敗してリトライ可能な例外が送出されていても、後続処理でリトライできない例外に上書きされる場合がありました。今回の修正で、リトライ可能な例外がそのまま送出されるようになります。詳しいパターンは別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
-    <rPh sb="137" eb="139">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u23に書き換える</t>
     <rPh sb="36" eb="38">
       <t>シテイ</t>
@@ -1852,22 +1365,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>以下の処理の例外ハンドリングを変更しました。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/standalone/retry_handler.html</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1877,14 +1374,6 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/libraries/validation/bean_validation.html#bean-validation-use-groups</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライハンドラを使用しているアプリケーション、またはRetryableインタフェースに対して何らかの処理を実装しているアプリケーションに影響があります。
-バージョンアップ後は、トランザクションに失敗した時にこれまでリトライできない例外として送出されていたものが、リトライ可能な例外として送出されることが多くなります。詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
-    <rPh sb="187" eb="188">
-      <t>ラン</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2095,61 +1584,6 @@
     </rPh>
     <rPh sb="281" eb="283">
       <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>■DBアクセス失敗時の例外ハンドリングの変更に伴う、例外発生パターンの変更点</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>送出される例外（～5u22）</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>送出される例外（5u23～）</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>以降、処理の変更点および変更に伴う例外発生パターンの変更点の詳細を記載します。</t>
-    <rPh sb="0" eb="2">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>レイガイハッセイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2280,352 +1714,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>リトライ可能例外</t>
-    <rPh sb="4" eb="6">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ不可例外</t>
-    <rPh sb="4" eb="6">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>コネクション終了時</t>
-    <rPh sb="6" eb="9">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>業務処理</t>
-    <rPh sb="0" eb="4">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベース接続管理ハンドラ、個別トランザクションを使用したDBアクセスでは、それぞれ以下のような業務処理から送出される例外のハンドリングを変更しました。</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベース接続管理ハンドラ：　後続のハンドラにて実行される処理（業務処理）が送出する例外</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ソウシュ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>業務処理とDBコネクションの終了処理は、発生するDBの例外に応じてリトライ可能な例外とリトライ不可な例外を出し分けます。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理では、例外が発生しても送出することなくログ出力のみ行い処理を続行するよう変更しました。</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>それぞれの処理で発生したリトライ可否と最終的にリトライハンドラでハンドリングされる例外のリトライ可否の組み合わせは5u22までと5u23からで以下の通り変更されます。</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>例外発生なし</t>
-    <rPh sb="0" eb="2">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>～5u22 最終的にリトライハンドラでハンドリングされる例外</t>
-    <rPh sb="6" eb="9">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>5u23～ 最終的にリトライハンドラでハンドリングされる例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>5u23以降は業務処理で発生した例外のリトライ可否が優先され、コネクション終了時に発生した例外は無視されます。</t>
-    <rPh sb="4" eb="6">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ムシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションの終了処理で発生した例外は警告ログとして出力されます。try句(業務処理)で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>個別トランザクションを使用したDBアクセス：対象となるDBアクセスのコミット・ロールバック処理（業務処理）が送出する例外</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="54" eb="58">
-      <t>ソウシュ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>以下、変更前後の例外発生パターンを示します。（コミット処理とロールバック処理はいずれも業務処理として扱います。より後のタイミングとなるロールバック処理で発生した例外がコミット処理の例外より優先されます。）</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ユウセン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ブランクプロジェクトには、疎通確認用とエラーページサンプルとしてJSPファイルが含まれます。このJSPファイルの直接起動を防ぐため、またブランクプロジェクトを参考にしてWEB-INF外にJSPファイルを配置してしまうことを防ぐため、JSPファイルをWEB-INF配下に移動しました。</t>
     <rPh sb="13" eb="15">
       <t>ソツウ</t>
@@ -2656,6 +1744,776 @@
     </rPh>
     <rPh sb="134" eb="136">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>■DBアクセス失敗時の例外ハンドリングの変更点</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>データベースアクセスを行うアプリケーションに影響があります。ただし基本的に対応の必要はありません。
+詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・リトライハンドラを設定しているバッチアプリケーションにおいて、ロールバック時に例外が発生した場合とコネクションクローズ時に例外が発生した場合で挙動が異なり</t>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　ロールバック時に例外が発生した場合はリトライされるが、コネクションクローズ時に例外が発生した場合はリトライされない。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆変更点</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. コネクションのクローズ時に例外が発生した場合、例外をスローせず、ログ出力に留める</t>
+    <rPh sb="14" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆改修を行った経緯</t>
+    <rPh sb="1" eb="3">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>利用者から以下の事象について問い合わせがありました。</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1. DBアクセスで例外が発生した場合、原因がDB接続の異常であった場合は必ずリトライ可能な例外をスローする</t>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆既存アプリケーションへの影響</t>
+    <rPh sb="1" eb="3">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ただし、1点目では発生する例外の種類が、2点目では例外がスローされなくなるという変更が発生していますので、以下の場合には対応が必要となります。</t>
+    <rPh sb="5" eb="7">
+      <t>テンメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベース接続管理ハンドラーデータベースの接続先を設定する</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)-データベースに対する接続設定</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)- データベースアクセス時の例外クラスを切り替える</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ConnectionFactory</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DbAccessExceptionFactory</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・SimpleDbTransactionExecutor</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DbConnectionManagementHandler</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベース接続管理ハンドラ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)-現在のトランザクションとは異なるトランザクションでSQLを実行する</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>なお本改修はNablarchの提供する以下の標準クラスを使用している場合に影響があります。これらのクラスを独自実装に差し替えている場合は影響はありません。</t>
+    <rPh sb="2" eb="5">
+      <t>ホンカイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>各クラスの詳細はリンク先の解説書をご参照ください。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　それ以外の処理(コネクションの初期化処理やコミット処理)では原因に関わらずリトライ不可な例外をスローしていました。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>なお改修の結果、バッチアプリケーション以外にも影響が有り得ます。影響内容と対応については後述の既存アプリケーションへの影響をご確認ください。</t>
+    <rPh sb="2" eb="4">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>上記の問題を解消するために以下2点の変更を行っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コネクションクローズ時に発生した例外で業務処理の例外が握りつぶされてしまうことが抑止されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ニギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨクシ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※今までは業務処理で例外が発生した後にコネクションのクローズ時にも例外が発生してしまうと、業務処理で発生した例外が隠蔽されコネクションクローズ時の例外がスローされていました。</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ギョウムショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>インペイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※DB接続の異常以外の原因（一意制約違反やSQLの不備など）で例外が発生した場合は、今までと変わらずリトライ不可な例外をスローします。</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>今までDB接続の異常が原因であってもリトライ不可と判定される場合がありましたが、適切にリトライされるようになります。</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※今まではロールバック時に例外が発生した場合のみ、DB接続の異常が原因であるか否かで正しくリトライ判定を行っていましたが、</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※改修前にスローされていたリトライ不可な例外と改修後にスローされるようになったリトライ可能な例外の差異は</t>
+    <rPh sb="1" eb="4">
+      <t>カイシュウマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カイシュウゴ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　リトライハンドラでハンドリングされるRetryableインターフェースを実装しているかどうかのみで、それ以外の挙動に差異はありません。</t>
+    <rPh sb="53" eb="55">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※コネクションクローズ時の例外はスローされなくなります。</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DBアクセス例外を想定したテストを行っている場合、これまでと例外の種類や挙動が変わるため、期待値の変更が必要になる場合があります。</t>
+    <rPh sb="7" eb="9">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・独自実装のハンドラにより、コネクションのクローズ時に発生した例外をハンドリングしている場合、独自実装を見直してください。</t>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>これにより、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リトライによって処理が成功する可能性が高くなります。</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>これにより、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>障害調査が容易になります。</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検討した結果、リトライ判定の妥当性や障害調査の容易性を鑑み、挙動を見直すべきと判断しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ダトウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>変更点に挙げた通り、今回の変更が運用に与える影響は好ましいと考えられるため、基本的にはアプリケーション側で対応する必要はないと考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>DBアクセス失敗時の例外ハンドリングについて、以下2点の修正を実施しました。
+1. DBアクセスで例外が発生した場合、原因がDB接続の異常であった場合は必ずリトライ可能な例外をスローする
+2. コネクションのクローズ時に例外が発生した場合、例外をスローせず、ログ出力に留める
+詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2664,7 +2522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2859,14 +2717,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -2874,36 +2724,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF006100"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2915,36 +2740,22 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF006100"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2963,54 +2774,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3178,428 +2943,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3712,14 +3057,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3921,144 +3260,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="23" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="24" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="28" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="28" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="27" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="30" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="27" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="29" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="32" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="33" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="33" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="34" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4104,136 +3305,39 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="28" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="27" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="28" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="30" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="32" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="30" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="28" xfId="38" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="39" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="11" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="41" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="32" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="38">
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="39" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4271,7 +3375,6 @@
     <cellStyle name="標準 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="標準 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="標準 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="良い" xfId="38" builtinId="26"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -4828,201 +3931,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 右 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA73FAD4-BD0C-9ED5-2763-79505DC458A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="4686300"/>
-          <a:ext cx="457200" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B81C77-5D0A-4E98-B5DF-A4329ABB33EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="257175" y="3943350"/>
-          <a:ext cx="4810125" cy="1581150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F724C02-533C-46F8-A611-AAF393849298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5857875" y="3943350"/>
-          <a:ext cx="4810125" cy="1581150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5714,7 +4622,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5779,64 +4687,64 @@
       <c r="DU3" s="11"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="122" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="52" t="s">
         <v>86</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="123"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
@@ -5917,7 +4825,7 @@
         <v>116</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>125</v>
@@ -5987,41 +4895,41 @@
     <row r="10" spans="1:125" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="115">
+      <c r="C10" s="69">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="114" t="s">
-        <v>273</v>
-      </c>
-      <c r="N10" s="115" t="s">
+      <c r="M10" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="69" t="s">
         <v>172</v>
       </c>
       <c r="O10" s="38"/>
@@ -6029,100 +4937,100 @@
     <row r="11" spans="1:125" s="12" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="116"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="N12" s="117"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="38"/>
     </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:125" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="53"/>
-      <c r="C13" s="115">
+      <c r="C13" s="69">
         <f>C10+1</f>
         <v>5</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="115" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="115" t="s">
+      <c r="G13" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="L13" s="115" t="s">
-        <v>274</v>
+      <c r="L13" s="69" t="s">
+        <v>215</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="N13" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="69" t="s">
         <v>195</v>
       </c>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="66"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
@@ -6230,7 +5138,7 @@
         <v>142</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>141</v>
@@ -6247,8 +5155,8 @@
       <c r="L17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="113" t="s">
-        <v>272</v>
+      <c r="M17" s="67" t="s">
+        <v>199</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>135</v>
@@ -6272,7 +5180,7 @@
         <v>149</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>152</v>
@@ -6356,7 +5264,7 @@
         <v>163</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>141</v>
@@ -6419,7 +5327,7 @@
         <v>105</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>108</v>
@@ -6461,7 +5369,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>139</v>
@@ -6545,7 +5453,7 @@
         <v>174</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>177</v>
@@ -6587,7 +5495,7 @@
         <v>176</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>178</v>
@@ -6693,7 +5601,7 @@
         <v>133</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>131</v>
@@ -6735,7 +5643,7 @@
         <v>134</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>136</v>
@@ -6752,8 +5660,8 @@
       <c r="L30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="113" t="s">
-        <v>272</v>
+      <c r="M30" s="67" t="s">
+        <v>199</v>
       </c>
       <c r="N30" s="25" t="s">
         <v>135</v>
@@ -6777,7 +5685,7 @@
         <v>147</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>146</v>
@@ -6861,7 +5769,7 @@
         <v>185</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>162</v>
@@ -7152,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -7207,2114 +6115,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6717-C882-4D84-B95C-32C2DDD54B3B}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="81" customWidth="1"/>
-    <col min="2" max="9" width="24.5" style="81" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="81"/>
+    <col min="1" max="1" width="3.375" style="84" customWidth="1"/>
+    <col min="2" max="9" width="24.5" style="84" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="81" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="83"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="83"/>
+      <c r="B3" s="85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="83"/>
+      <c r="B4" s="86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="83"/>
+      <c r="B5" s="87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="83"/>
+      <c r="B6" s="87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="83"/>
+      <c r="B7" s="86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="83"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="83"/>
+      <c r="B13" s="86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="83"/>
+      <c r="B14" s="87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="83"/>
+      <c r="B15" s="87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="83"/>
+      <c r="B16" s="87"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="83"/>
+      <c r="B17" s="82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="83"/>
+      <c r="B19" s="82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="83"/>
+      <c r="B20" s="87"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="83"/>
+      <c r="B21" s="86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="83"/>
+      <c r="B22" s="87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="83"/>
+      <c r="B23" s="87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="83"/>
+      <c r="B24" s="86"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="83"/>
+      <c r="B25" s="82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="81" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="81" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="81" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="81" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
-      <c r="B27" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="82" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="83"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="83"/>
+      <c r="B27" s="85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="83"/>
+      <c r="B28" s="86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="83"/>
+      <c r="B29" s="86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="83"/>
+      <c r="B30" s="86"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="83"/>
+      <c r="B31" s="87" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="83"/>
+      <c r="B32" s="87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="83"/>
+      <c r="B33" s="88"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="83"/>
+      <c r="B34" s="91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="83"/>
+      <c r="B35" s="91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="83"/>
+      <c r="B36" s="91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="83"/>
+      <c r="B37" s="89"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="83"/>
+      <c r="B38" s="86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="83"/>
+      <c r="B39" s="86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="83"/>
+      <c r="B40" s="86"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="83"/>
+      <c r="B41" s="87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="83"/>
+      <c r="B42" s="90" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="83"/>
+      <c r="B43" s="90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="83"/>
+      <c r="B44" s="87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="83"/>
+      <c r="B45" s="90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="83"/>
+      <c r="B46" s="87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="83"/>
+      <c r="B47" s="90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="83"/>
+      <c r="B48" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="83"/>
+      <c r="B49" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="89"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="89"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="77"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="90"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="77"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="77"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="77"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="77"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="77"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="77"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="77"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="77"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="77"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="94"/>
-      <c r="B62" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="81" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-    </row>
-    <row r="66" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="73"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="75"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="74"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="75"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="77"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="75"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="75"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="75"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="75"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="75"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="75"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="75"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="75"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="74" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="83"/>
+      <c r="B50" s="86"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="75"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="75"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="75"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="77"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="75"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="75"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="75"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="77"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="75"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="75"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="77"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="75"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="75"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="75"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="75"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="75"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="75"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="77"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="75"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="75"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="75"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="77"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="75"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="75"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="77"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="75"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="75"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="75"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="75"/>
-      <c r="F107" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="75"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="77"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="77"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="75"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="77"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="77"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="75"/>
-      <c r="F114" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="75"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="75"/>
-      <c r="F115" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="75"/>
-    </row>
-    <row r="116" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="80"/>
-    </row>
-    <row r="117" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="81" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-    </row>
-    <row r="122" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="83" t="s">
-        <v>305</v>
-      </c>
-      <c r="C122" s="83"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="162" t="s">
-        <v>293</v>
-      </c>
-      <c r="C123" s="163"/>
-      <c r="D123" s="168" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" s="166" t="s">
-        <v>284</v>
-      </c>
-      <c r="F123" s="164" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="160" t="s">
-        <v>230</v>
-      </c>
-      <c r="C124" s="161" t="s">
-        <v>231</v>
-      </c>
-      <c r="D124" s="169"/>
-      <c r="E124" s="167"/>
-      <c r="F124" s="165"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C125" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D125" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E125" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="F125" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C126" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E126" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F126" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B127" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D127" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E127" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F127" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B128" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C128" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F128" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C129" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D129" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E129" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F129" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D130" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E130" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F130" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C131" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D131" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E131" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F131" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E132" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F132" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C133" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D133" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E133" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F133" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B134" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D134" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E134" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F134" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C135" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E135" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F135" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C136" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D136" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E136" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F136" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D137" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E137" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F137" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C138" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E138" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F138" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E139" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F139" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E140" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D141" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E141" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F141" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B142" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D142" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E142" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F142" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D143" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E143" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F143" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D144" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E144" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F144" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="C145" s="109" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="106" t="s">
-        <v>260</v>
-      </c>
-      <c r="E145" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="F145" s="100" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="94"/>
-      <c r="B148" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="C148" s="94"/>
-      <c r="D148" s="94"/>
-      <c r="E148" s="94"/>
-      <c r="F148" s="94"/>
-      <c r="G148" s="94"/>
-      <c r="H148" s="94"/>
-      <c r="I148" s="94"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B149" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-    </row>
-    <row r="152" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F152" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C153" s="87"/>
-      <c r="D153" s="87"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="G153" s="87"/>
-      <c r="H153" s="87"/>
-      <c r="I153" s="88"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B154" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="G154" s="68"/>
-      <c r="H154" s="68"/>
-      <c r="I154" s="90"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B155" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="90"/>
-      <c r="F155" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="G155" s="68"/>
-      <c r="H155" s="68"/>
-      <c r="I155" s="90"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B156" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G156" s="68"/>
-      <c r="H156" s="68"/>
-      <c r="I156" s="90"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B157" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="G157" s="68"/>
-      <c r="H157" s="68"/>
-      <c r="I157" s="90"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B158" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="90"/>
-      <c r="F158" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="G158" s="68"/>
-      <c r="H158" s="68"/>
-      <c r="I158" s="90"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B159" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="90"/>
-      <c r="F159" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="G159" s="68"/>
-      <c r="H159" s="68"/>
-      <c r="I159" s="90"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B160" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="90"/>
-      <c r="F160" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="90"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B161" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161" s="68"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="90"/>
-      <c r="F161" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G161" s="68"/>
-      <c r="H161" s="68"/>
-      <c r="I161" s="90"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="90"/>
-      <c r="F162" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="G162" s="68"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="90"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B163" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="90"/>
-      <c r="F163" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="90"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B164" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" s="68"/>
-      <c r="H164" s="68"/>
-      <c r="I164" s="90"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B165" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="90"/>
-      <c r="F165" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="G165" s="68"/>
-      <c r="H165" s="68"/>
-      <c r="I165" s="90"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="90"/>
-      <c r="F166" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="G166" s="68"/>
-      <c r="H166" s="68"/>
-      <c r="I166" s="90"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B167" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="77"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B168" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="90"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B169" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="90"/>
-      <c r="F169" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G169" s="68"/>
-      <c r="H169" s="68"/>
-      <c r="I169" s="90"/>
-    </row>
-    <row r="170" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C170" s="92"/>
-      <c r="D170" s="92"/>
-      <c r="E170" s="93"/>
-      <c r="F170" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G170" s="92"/>
-      <c r="H170" s="92"/>
-      <c r="I170" s="93"/>
-    </row>
-    <row r="171" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B172" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B173" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="83"/>
-      <c r="C174" s="83"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D123:D124"/>
-  </mergeCells>
   <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1" location="id6" xr:uid="{B3C0FEA4-0147-4E69-AE61-F8312DCE191A}"/>
+    <hyperlink ref="B43" r:id="rId2" location="database-connect" xr:uid="{E89BC2BA-F1AD-4512-A169-9D7834751610}"/>
+    <hyperlink ref="B45" r:id="rId3" location="database-change-exception" xr:uid="{824FDED7-DB5F-43F5-8C1D-1DC0B626CC61}"/>
+    <hyperlink ref="B47" r:id="rId4" location="database-connection-management-handler" xr:uid="{9700890B-B99C-4DB1-A840-082582EED0F6}"/>
+    <hyperlink ref="B49" r:id="rId5" location="database-new-transaction" xr:uid="{2D17336A-25A0-4092-B55C-83598528062F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AB6786-FE5F-49C4-A236-10C8B5321180}">
-  <dimension ref="B2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="145"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="159" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="138" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="154" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="155" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="156" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="136" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="145"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="159" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132"/>
-      <c r="C12" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="142" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="138" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="144" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B9:C10"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9323,7 +6426,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9397b6e5093f0ea3320ea4328e9622b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b83f8d8fade62e630f7e332b1b8b9037" ns2:_="" ns3:_="">
     <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
@@ -9540,24 +6643,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9565,7 +6662,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7437B4A5-B05E-478D-8923-547CA0DFB87B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9582,4 +6679,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>